--- a/ユーザー定義書物.xlsx
+++ b/ユーザー定義書物.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\家計簿アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4397CC7A-EB2C-4589-BFF4-F1492FBA4990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252357E-6E1B-454B-81B0-3DC0C3A5E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20445" windowHeight="13740" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20445" windowHeight="13740" activeTab="1" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザー" sheetId="1" r:id="rId1"/>
+    <sheet name="登録するデータ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,6 +31,251 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家計簿アプリ</t>
+    <rPh sb="0" eb="3">
+      <t>カケイボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あだ名</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID、勝手に決まる</t>
+    <rPh sb="7" eb="9">
+      <t>カッテ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの入力</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あだ名の入力</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max255</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>verchar_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar_price</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品値段</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品タグ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品が何に属しているか</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ナニニゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象の商品の値段</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象の商品名</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,9 +319,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,21 +640,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3266BC-F871-42F7-8926-D0425C979CD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E52CF-9C02-40C3-8704-C2122682C2F4}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ユーザー定義書物.xlsx
+++ b/ユーザー定義書物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\家計簿アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6252357E-6E1B-454B-81B0-3DC0C3A5E2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA2A36-D6E9-42BB-A5FB-A777B1088F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20445" windowHeight="13740" activeTab="1" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
+    <workbookView xWindow="17952" yWindow="1464" windowWidth="15156" windowHeight="9756" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="1" r:id="rId1"/>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3266BC-F871-42F7-8926-D0425C979CD3}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -823,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E52CF-9C02-40C3-8704-C2122682C2F4}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/ユーザー定義書物.xlsx
+++ b/ユーザー定義書物.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\家計簿アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA2A36-D6E9-42BB-A5FB-A777B1088F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E54D1-C37B-47D0-84FC-E67A276057C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17952" yWindow="1464" windowWidth="15156" windowHeight="9756" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20445" windowHeight="13740" activeTab="1" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="1" r:id="rId1"/>
-    <sheet name="登録するデータ" sheetId="2" r:id="rId2"/>
+    <sheet name="セッションテーブル" sheetId="3" r:id="rId2"/>
+    <sheet name="登録するデータ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -273,6 +274,20 @@
   </si>
   <si>
     <t>min1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな数値＋ランダムな文字</t>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -642,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3266BC-F871-42F7-8926-D0425C979CD3}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -820,6 +835,159 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC703AB2-EA7B-4DE7-A434-7D766FA7F992}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574E52CF-9C02-40C3-8704-C2122682C2F4}">
   <dimension ref="A1:I8"/>
   <sheetViews>

--- a/ユーザー定義書物.xlsx
+++ b/ユーザー定義書物.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\家計簿アプリ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E54D1-C37B-47D0-84FC-E67A276057C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF25F9D-5A4E-4756-A1F4-C0EC78583107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20445" windowHeight="13740" activeTab="1" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
+    <workbookView xWindow="-17388" yWindow="-60" windowWidth="17496" windowHeight="10416" activeTab="1" xr2:uid="{BCE12ADA-742D-4E42-A4DA-F77F67B45F5E}"/>
   </bookViews>
   <sheets>
     <sheet name="ユーザー" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="登録するデータ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
